--- a/posesiones/1486016.xlsx
+++ b/posesiones/1486016.xlsx
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>21</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
         <v>25</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2357,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>13</v>
@@ -2407,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2457,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>20</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2560,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>11</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R20">
         <v>13</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>22</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3301,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>17</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R33">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>12</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3651,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>12</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3851,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R42">
         <v>19</v>
@@ -3904,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>9</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>6</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R46">
         <v>13</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>22</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4257,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>19</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>11</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R54">
         <v>11</v>
@@ -4516,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4566,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R56">
         <v>7</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R58">
         <v>22</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5342,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R72">
         <v>29</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5442,7 +5442,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R74">
         <v>13</v>
@@ -5492,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5542,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R76">
         <v>25</v>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R83">
         <v>37</v>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6027,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R86">
         <v>14</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6127,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6227,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R90">
         <v>15</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6418,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6656,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R99">
         <v>24</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6803,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6944,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7038,7 +7038,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R111">
         <v>20</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7332,7 +7332,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R113">
         <v>16</v>
@@ -7385,7 +7385,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R115">
         <v>10</v>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7532,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7626,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7723,7 +7723,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7773,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R122">
         <v>29</v>
@@ -7826,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7876,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R124">
         <v>20</v>
@@ -7929,7 +7929,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R125">
         <v>11</v>
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="Q126">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R126">
         <v>1</v>
@@ -8029,10 +8029,10 @@
         <v>1</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8173,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8314,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8355,10 +8355,10 @@
         <v>1</v>
       </c>
       <c r="P134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8408,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R135">
         <v>3</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8555,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -8605,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R141">
         <v>26</v>
@@ -8758,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R142">
         <v>15</v>
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R143">
         <v>20</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8914,7 +8914,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R145">
         <v>21</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9108,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9202,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9437,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9625,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R160">
         <v>28</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9863,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9913,7 +9913,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R166">
         <v>14</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10057,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10107,7 +10107,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10157,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R171">
         <v>29</v>
@@ -10207,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10254,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10301,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10398,7 +10398,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R176">
         <v>16</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10501,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="Q178">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R178">
         <v>14</v>
@@ -10554,7 +10554,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10742,7 +10742,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R184">
         <v>30</v>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10895,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R186">
         <v>16</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10992,7 +10992,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11039,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R191">
         <v>20</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11336,7 +11336,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R195">
         <v>15</v>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11439,7 +11439,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R197">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11536,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11680,7 +11680,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11727,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11777,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R204">
         <v>6</v>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11874,7 +11874,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11924,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R207">
         <v>16</v>
@@ -11974,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12018,7 +12018,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R210">
         <v>16</v>
@@ -12121,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R211">
         <v>14</v>
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12321,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R215">
         <v>17</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12421,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="Q217">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R217">
         <v>27</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12521,7 +12521,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R219">
         <v>7</v>
@@ -12574,7 +12574,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12621,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="Q223">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R223">
         <v>26</v>
@@ -12771,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12821,7 +12821,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R225">
         <v>4</v>
@@ -12868,7 +12868,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12962,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="Q231">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R231">
         <v>20</v>
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13206,7 +13206,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R233">
         <v>20</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13309,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R235">
         <v>14</v>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13409,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13550,7 +13550,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R242">
         <v>24</v>
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13750,7 +13750,7 @@
         <v>1</v>
       </c>
       <c r="Q244">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R244">
         <v>18</v>
@@ -13803,7 +13803,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R245">
         <v>26</v>
@@ -13856,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R246">
         <v>7</v>
@@ -13909,7 +13909,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13959,7 +13959,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R248">
         <v>10</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14062,7 +14062,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R250">
         <v>21</v>
@@ -14112,7 +14112,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14156,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14206,7 +14206,7 @@
         <v>1</v>
       </c>
       <c r="Q253">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R253">
         <v>12</v>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14400,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14450,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R258">
         <v>0</v>
@@ -14500,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14597,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R261">
         <v>18</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14700,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R263">
         <v>2</v>
@@ -14756,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R264">
         <v>0</v>
@@ -14800,10 +14800,10 @@
         <v>1</v>
       </c>
       <c r="P265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14850,7 +14850,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15079,10 +15079,10 @@
         <v>1</v>
       </c>
       <c r="P271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q271">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15132,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R272">
         <v>13</v>
@@ -15185,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R273">
         <v>15</v>
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15282,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15379,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R277">
         <v>22</v>
@@ -15432,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15482,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R279">
         <v>16</v>
@@ -15532,7 +15532,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15579,7 +15579,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15629,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R282">
         <v>0</v>
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R283">
         <v>23</v>
@@ -15732,7 +15732,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15779,7 +15779,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15873,7 +15873,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R288">
         <v>18</v>
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16023,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R290">
         <v>16</v>
@@ -16073,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16123,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R292">
         <v>18</v>
@@ -16173,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16223,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16273,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R295">
         <v>7</v>
@@ -16326,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16376,7 +16376,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R297">
         <v>9</v>
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16520,7 +16520,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16570,7 +16570,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R301">
         <v>22</v>
@@ -16620,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16670,7 +16670,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R303">
         <v>13</v>
@@ -16723,7 +16723,7 @@
         <v>1</v>
       </c>
       <c r="Q304">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R304">
         <v>19</v>
@@ -16776,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16826,7 +16826,7 @@
         <v>1</v>
       </c>
       <c r="Q306">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R306">
         <v>6</v>
@@ -16873,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16923,7 +16923,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R308">
         <v>26</v>
@@ -16976,7 +16976,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17070,7 +17070,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17117,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17164,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17258,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17305,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17352,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17399,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17449,7 +17449,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R319">
         <v>14</v>
@@ -17502,7 +17502,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R320">
         <v>19</v>
@@ -17555,7 +17555,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17602,7 +17602,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17652,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17699,7 +17699,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17793,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R326">
         <v>40</v>
@@ -17846,7 +17846,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R327">
         <v>8</v>
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17949,7 +17949,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R329">
         <v>22</v>
@@ -17999,7 +17999,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18049,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R331">
         <v>19</v>
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18149,7 +18149,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R333">
         <v>13</v>
@@ -18199,7 +18199,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18252,7 +18252,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R335">
         <v>16</v>
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18349,7 +18349,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18396,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18631,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18681,7 +18681,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R344">
         <v>18</v>
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R346">
         <v>17</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18881,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18975,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19022,7 +19022,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19119,7 +19119,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R353">
         <v>1</v>
@@ -19172,7 +19172,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19219,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19266,7 +19266,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19360,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19410,7 +19410,7 @@
         <v>1</v>
       </c>
       <c r="Q359">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R359">
         <v>30</v>
@@ -19460,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19557,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19607,7 +19607,7 @@
         <v>1</v>
       </c>
       <c r="Q363">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R363">
         <v>22</v>
@@ -19660,7 +19660,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R364">
         <v>11</v>
@@ -19710,7 +19710,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19760,7 +19760,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R366">
         <v>8</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19863,7 +19863,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R368">
         <v>9</v>
@@ -19913,7 +19913,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19960,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20007,7 +20007,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20104,7 +20104,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R373">
         <v>13</v>
@@ -20154,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20201,7 +20201,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20295,7 +20295,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20342,7 +20342,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20392,7 +20392,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R379">
         <v>11</v>
@@ -20442,7 +20442,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20489,7 +20489,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20539,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R382">
         <v>14</v>
@@ -20589,7 +20589,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20639,7 +20639,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R384">
         <v>18</v>
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20742,7 +20742,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R386">
         <v>22</v>
@@ -20795,7 +20795,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
       <c r="Q388">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R388">
         <v>9</v>
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20936,10 +20936,10 @@
         <v>1</v>
       </c>
       <c r="P390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q390">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20986,7 +20986,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21080,7 +21080,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21127,7 +21127,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21168,10 +21168,10 @@
         <v>1</v>
       </c>
       <c r="P395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q395">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21218,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21265,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21315,7 +21315,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R398">
         <v>8</v>
@@ -21365,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21415,7 +21415,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R400">
         <v>19</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R402">
         <v>18</v>
@@ -21568,7 +21568,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21615,7 +21615,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21709,7 +21709,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21756,7 +21756,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21803,7 +21803,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21900,7 +21900,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R410">
         <v>26</v>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21997,7 +21997,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22091,7 +22091,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22138,7 +22138,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22185,7 +22185,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22232,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22282,7 +22282,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R418">
         <v>29</v>
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22379,7 +22379,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22426,7 +22426,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22520,7 +22520,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22617,7 +22617,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22664,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22764,7 +22764,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R428">
         <v>42</v>
@@ -22814,7 +22814,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22861,7 +22861,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22955,7 +22955,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
       <c r="Q433">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R433">
         <v>19</v>
@@ -23055,7 +23055,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23105,7 +23105,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R435">
         <v>15</v>
@@ -23158,7 +23158,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23252,7 +23252,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23346,7 +23346,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23396,7 +23396,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R441">
         <v>26</v>
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23499,7 +23499,7 @@
         <v>1</v>
       </c>
       <c r="Q443">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R443">
         <v>11</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23596,7 +23596,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23643,7 +23643,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23693,7 +23693,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23743,7 +23743,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R448">
         <v>21</v>
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23846,7 +23846,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R450">
         <v>15</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23949,7 +23949,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R452">
         <v>14</v>
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24052,7 +24052,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R454">
         <v>21</v>
@@ -24102,7 +24102,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24152,7 +24152,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24202,7 +24202,7 @@
         <v>1</v>
       </c>
       <c r="Q457">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R457">
         <v>17</v>
@@ -24252,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24537,7 +24537,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R464">
         <v>1</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24640,7 +24640,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R466">
         <v>13</v>
@@ -24690,7 +24690,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R469">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24890,7 +24890,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R471">
         <v>16</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25034,7 +25034,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25084,7 +25084,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R475">
         <v>22</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25184,7 +25184,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R477">
         <v>16</v>
@@ -25237,7 +25237,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25287,7 +25287,7 @@
         <v>1</v>
       </c>
       <c r="Q479">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R479">
         <v>8</v>
@@ -25340,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25384,7 +25384,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25528,7 +25528,7 @@
         <v>1</v>
       </c>
       <c r="Q484">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R484">
         <v>12</v>
@@ -25578,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25625,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25675,7 +25675,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R487">
         <v>20</v>
@@ -25728,7 +25728,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R488">
         <v>20</v>
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25828,7 +25828,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R490">
         <v>17</v>
@@ -25878,7 +25878,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25972,7 +25972,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26019,7 +26019,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26066,7 +26066,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26113,7 +26113,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26163,7 +26163,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R497">
         <v>8</v>
@@ -26213,7 +26213,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26260,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26310,7 +26310,7 @@
         <v>1</v>
       </c>
       <c r="Q500">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R500">
         <v>11</v>
@@ -26360,7 +26360,7 @@
         <v>0</v>
       </c>
       <c r="Q501">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="502" spans="1:18">
@@ -26410,7 +26410,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R502">
         <v>20</v>
@@ -26460,7 +26460,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26510,7 +26510,7 @@
         <v>1</v>
       </c>
       <c r="Q504">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R504">
         <v>8</v>
@@ -26563,7 +26563,7 @@
         <v>1</v>
       </c>
       <c r="Q505">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R505">
         <v>19</v>
@@ -26616,7 +26616,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26663,7 +26663,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26757,7 +26757,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26854,7 +26854,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R511">
         <v>8</v>
@@ -26907,7 +26907,7 @@
         <v>1</v>
       </c>
       <c r="Q512">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R512">
         <v>23</v>
@@ -26954,7 +26954,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27098,7 +27098,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R516">
         <v>7</v>
@@ -27148,7 +27148,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27198,7 +27198,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R518">
         <v>3</v>
@@ -27251,7 +27251,7 @@
         <v>1</v>
       </c>
       <c r="Q519">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R519">
         <v>8</v>
@@ -27301,7 +27301,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27351,7 +27351,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27398,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27492,7 +27492,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27542,7 +27542,7 @@
         <v>1</v>
       </c>
       <c r="Q525">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R525">
         <v>13</v>
@@ -27595,7 +27595,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27645,7 +27645,7 @@
         <v>1</v>
       </c>
       <c r="Q527">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R527">
         <v>5</v>
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27748,7 +27748,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R529">
         <v>7</v>
@@ -27798,7 +27798,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27848,7 +27848,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R531">
         <v>9</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27939,10 +27939,10 @@
         <v>1</v>
       </c>
       <c r="P533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q533">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
